--- a/IP Spreadsheet Transport NSW (21-6097 & 21-6098).xlsx
+++ b/IP Spreadsheet Transport NSW (21-6097 & 21-6098).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JackB\Desktop\Transport NSW VideoWall\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JackB\Desktop\6068 Transport NSW VideoWall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AD4A9A-18AE-469C-9D0A-6460DFE25184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42E36F7-4009-4D71-82D4-99D312E05258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1037F01-9628-469A-AE8F-5B3E3B12D975}"/>
   </bookViews>
@@ -466,9 +466,6 @@
     <t>64:07:F6:45:D6:24</t>
   </si>
   <si>
-    <t>04CBHNJN900013</t>
-  </si>
-  <si>
     <t>BC:7E:8B:06:FB:E8</t>
   </si>
   <si>
@@ -782,6 +779,9 @@
   </si>
   <si>
     <t>CBD-L06-OpenVideoWall-TSW-1070</t>
+  </si>
+  <si>
+    <t>04CBHNJN900013W</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1491,7 @@
   <dimension ref="A2:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,38 +1513,38 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
       </c>
-      <c r="C2" t="s">
-        <v>163</v>
-      </c>
       <c r="L2" t="s">
+        <v>171</v>
+      </c>
+      <c r="M2" t="s">
         <v>172</v>
-      </c>
-      <c r="M2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3">
         <v>6068</v>
       </c>
       <c r="G3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H3" t="s">
         <v>245</v>
-      </c>
-      <c r="H3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
         <v>164</v>
-      </c>
-      <c r="C4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1576,25 +1576,25 @@
         <v>126</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1624,22 +1624,22 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K6">
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1669,22 +1669,22 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1714,22 +1714,22 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K8">
         <v>6</v>
       </c>
       <c r="M8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1759,22 +1759,22 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1804,22 +1804,22 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1849,22 +1849,22 @@
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K11">
         <v>5</v>
       </c>
       <c r="M11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1894,19 +1894,19 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1936,19 +1936,19 @@
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L13">
         <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1978,16 +1978,16 @@
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L14">
         <v>3</v>
       </c>
       <c r="M14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2017,16 +2017,16 @@
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L15">
         <v>4</v>
       </c>
       <c r="M15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -2056,13 +2056,13 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L16">
         <v>5</v>
       </c>
       <c r="M16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O16">
         <v>10</v>
@@ -2095,13 +2095,13 @@
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L17">
         <v>6</v>
       </c>
       <c r="M17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O17">
         <v>11</v>
@@ -2135,10 +2135,10 @@
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
       <c r="L18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O18">
         <v>12</v>
@@ -2188,10 +2188,10 @@
       </c>
       <c r="J20" s="3"/>
       <c r="M20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2205,16 +2205,19 @@
         <v>134</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="3"/>
+      <c r="L21">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -2227,16 +2230,19 @@
         <v>134</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="3"/>
+      <c r="L22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -2249,16 +2255,19 @@
         <v>134</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>143</v>
+        <v>248</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="3"/>
+      <c r="L23">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -2271,16 +2280,19 @@
         <v>134</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="3"/>
+      <c r="L24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -2293,16 +2305,19 @@
         <v>134</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="3"/>
+      <c r="L25">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -2315,16 +2330,19 @@
         <v>134</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="3"/>
+      <c r="L26">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
@@ -2343,23 +2361,23 @@
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O28">
         <v>3</v>
@@ -2417,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>64</v>
@@ -2429,25 +2447,25 @@
         <v>66</v>
       </c>
       <c r="H33" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I33" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="J33" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="J33" s="13" t="s">
-        <v>170</v>
-      </c>
       <c r="K33" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2473,12 +2491,12 @@
         <v>121</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N34" s="8"/>
     </row>
@@ -2509,17 +2527,17 @@
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K35" s="8">
         <v>3</v>
       </c>
       <c r="L35" s="8"/>
       <c r="M35" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2549,17 +2567,17 @@
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K36" s="8">
         <v>2</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2589,17 +2607,17 @@
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K37" s="8">
         <v>1</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2629,14 +2647,14 @@
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K38" s="8"/>
       <c r="L38" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N38" s="8"/>
     </row>
@@ -2667,14 +2685,14 @@
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N39" s="8"/>
     </row>
@@ -2705,11 +2723,11 @@
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
@@ -2741,11 +2759,11 @@
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
@@ -2777,17 +2795,17 @@
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
